--- a/config_10.19/shoping_config_vivo.xlsx
+++ b/config_10.19/shoping_config_vivo.xlsx
@@ -10693,7 +10693,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="X625" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y640" sqref="Y640"/>
+      <selection pane="bottomRight" activeCell="AB635" sqref="AB635:AB646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -51666,9 +51666,6 @@
       <c r="AA635" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB635" s="29">
-        <v>80</v>
-      </c>
       <c r="AI635" s="29">
         <v>1</v>
       </c>
@@ -51734,9 +51731,6 @@
       <c r="AA636" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB636" s="29">
-        <v>80</v>
-      </c>
       <c r="AI636" s="29">
         <v>1</v>
       </c>
@@ -51802,9 +51796,6 @@
       <c r="AA637" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB637" s="29">
-        <v>80</v>
-      </c>
       <c r="AI637" s="29">
         <v>1</v>
       </c>
@@ -51870,9 +51861,6 @@
       <c r="AA638" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB638" s="29">
-        <v>81</v>
-      </c>
       <c r="AI638" s="29">
         <v>1</v>
       </c>
@@ -51938,9 +51926,6 @@
       <c r="AA639" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB639" s="29">
-        <v>81</v>
-      </c>
       <c r="AI639" s="29">
         <v>1</v>
       </c>
@@ -52006,9 +51991,6 @@
       <c r="AA640" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB640" s="29">
-        <v>81</v>
-      </c>
       <c r="AI640" s="29">
         <v>1</v>
       </c>
@@ -52074,9 +52056,6 @@
       <c r="AA641" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB641" s="29">
-        <v>82</v>
-      </c>
       <c r="AI641" s="29">
         <v>1</v>
       </c>
@@ -52142,9 +52121,6 @@
       <c r="AA642" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB642" s="29">
-        <v>82</v>
-      </c>
       <c r="AI642" s="29">
         <v>1</v>
       </c>
@@ -52210,9 +52186,6 @@
       <c r="AA643" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB643" s="29">
-        <v>82</v>
-      </c>
       <c r="AI643" s="29">
         <v>1</v>
       </c>
@@ -52278,9 +52251,6 @@
       <c r="AA644" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB644" s="29">
-        <v>83</v>
-      </c>
       <c r="AI644" s="29">
         <v>1</v>
       </c>
@@ -52346,9 +52316,6 @@
       <c r="AA645" s="29">
         <v>1635177599</v>
       </c>
-      <c r="AB645" s="29">
-        <v>83</v>
-      </c>
       <c r="AI645" s="29">
         <v>1</v>
       </c>
@@ -52413,9 +52380,6 @@
       </c>
       <c r="AA646" s="29">
         <v>1635177599</v>
-      </c>
-      <c r="AB646" s="29">
-        <v>83</v>
       </c>
       <c r="AI646" s="29">
         <v>1</v>
